--- a/IRCS3_build/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_build/Input Sheet_IRCS3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanislausdosemon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Run Control 3\IRCS3_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C4605-A9BD-4D98-9E75-20F2E53A7BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F823BE3-FDB3-41D6-A624-B0A486B343B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Path</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>DV_AZTRAD</t>
-  </si>
-  <si>
-    <t>DV_AZUL</t>
-  </si>
-  <si>
     <t>only_currency</t>
   </si>
   <si>
@@ -146,12 +140,6 @@
     <t>run4</t>
   </si>
   <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\DV_AZTRAD_Stat_0625_v1.csv</t>
-  </si>
-  <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4TRAD_Con.xlsx</t>
-  </si>
-  <si>
     <t>only_channel</t>
   </si>
   <si>
@@ -173,24 +161,12 @@
     <t>run13</t>
   </si>
   <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run13TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run23TRAD_Con.xlsx</t>
-  </si>
-  <si>
     <t>run23</t>
   </si>
   <si>
     <t>run142</t>
   </si>
   <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run142TRAD_Con.xlsx</t>
-  </si>
-  <si>
-    <t>run5</t>
-  </si>
-  <si>
     <t>FX Rate Valdate</t>
   </si>
   <si>
@@ -200,28 +176,10 @@
     <t>Valuation Year</t>
   </si>
   <si>
-    <t>test_fileul</t>
-  </si>
-  <si>
-    <t>test_filetrad</t>
-  </si>
-  <si>
-    <t>SH,UL,PI</t>
-  </si>
-  <si>
     <t>path_dv</t>
   </si>
   <si>
     <t>path_uvsg</t>
-  </si>
-  <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\DV_AZUL_Stat_Con_2Q25.xlsx</t>
-  </si>
-  <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4UL_Con.xlsx</t>
-  </si>
-  <si>
-    <t>D:\1. IRCS Automation\Control 3 DEV\Source\Data_Extraction_run4UVSG.xlsx</t>
   </si>
   <si>
     <t>Which product architecture to run:`
@@ -282,6 +240,99 @@
   </si>
   <si>
     <t>pls check abbreviation and explanation pairs</t>
+  </si>
+  <si>
+    <t>IRCS_Control17.3_Trad_Conv</t>
+  </si>
+  <si>
+    <t>IRCS_Control17.3_UL_Conv</t>
+  </si>
+  <si>
+    <t>run2</t>
+  </si>
+  <si>
+    <t>run22</t>
+  </si>
+  <si>
+    <t>run12</t>
+  </si>
+  <si>
+    <t>run103</t>
+  </si>
+  <si>
+    <t>run141</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\DV_AZTRAD_Stat (1).csv</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run4TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run13TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run23TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\Trad\Data_Extraction_run142TRAD_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\DV_AZUL_Stat_ecass_Con_0625_v1.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\DV_AZUL_Stat_Con_2Q25.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\DV_AZUL_Stat_Con_12M24.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run2UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run4UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run12UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run22UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run103UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run141UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UL\Data_Extraction_run142UL_Con.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run2UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run4UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run103UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run141UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source\UVSG\Data_Extraction_run142UVSG.xlsx</t>
+  </si>
+  <si>
+    <t>Output Path Trad</t>
+  </si>
+  <si>
+    <t>D:\Run Control 3\Source</t>
+  </si>
+  <si>
+    <t>Output Path UL</t>
   </si>
 </sst>
 </file>
@@ -725,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +796,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -753,7 +804,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -761,7 +812,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>16233</v>
@@ -769,43 +820,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="str">
-        <f>B6</f>
-        <v>D:\1. IRCS Automation\Control 3 DEV\Source\DV_AZTRAD_Stat_0625_v1.csv</v>
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -818,126 +868,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>16233</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>16588</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
         <v>16233</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>16588</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>16233</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
         <v>16162</v>
       </c>
-      <c r="I5" t="s">
-        <v>40</v>
+      <c r="J5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -948,14 +1015,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
@@ -970,89 +1040,189 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>16233</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
+        <v>16162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>16233</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>16588</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="E3">
-        <v>16234</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>16233</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <v>16162</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>16162</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>16162</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1065,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4B8BF-6CE6-426C-98DB-79856DF47CE6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,120 +1248,601 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g46983e88b4748ce85d84a0abf06caac>
+    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </DossierOwner>
+    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nd5bd31d213b4cb1bf846bde47655c34>
+    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
+      <Description>APRHY6R45T4P-856611686-9305190</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
+    <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+    <xsd:import namespace="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns2:DossierOwner" minOccurs="0"/>
+                <xsd:element ref="ns2:DossierStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:g46983e88b4748ce85d84a0abf06caac" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:MailPreviewData" minOccurs="0"/>
+                <xsd:element ref="ns2:nd5bd31d213b4cb1bf846bde47655c34" minOccurs="0"/>
+                <xsd:element ref="ns2:ContractDate" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:ContractExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fc25a3cb-218b-453f-9455-87bfb19dc12c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:hidden="true" ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="false">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DossierOwner" ma:index="11" nillable="true" ma:displayName="Dossier owner(s)" ma:description="Person(s) owning the dossier." ma:hidden="true" ma:internalName="DossierOwner" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="DossierStatus" ma:index="12" nillable="true" ma:displayName="Dossier Status" ma:default="" ma:description="Indicate the status of the dossier." ma:hidden="true" ma:internalName="DossierStatus" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Open"/>
+          <xsd:enumeration value="Closed"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="g46983e88b4748ce85d84a0abf06caac" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="g46983e88b4748ce85d84a0abf06caac" ma:taxonomyFieldName="Document_Class" ma:displayName="Document Class" ma:fieldId="{046983e8-8b47-48ce-85d8-4a0abf06caac}" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="a8fe5516-3f25-4a18-9fe8-9ec61fcfebb7" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9abd9a54-d25f-4fef-a6cf-d913cbf872ae}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{9abd9a54-d25f-4fef-a6cf-d913cbf872ae}" ma:internalName="TaxCatchAllLabel" ma:readOnly="false" ma:showField="CatchAllDataLabel" ma:web="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MailPreviewData" ma:index="17" nillable="true" ma:displayName="Mail Preview" ma:description="File preview for harmonie" ma:hidden="true" ma:internalName="MailPreviewData" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="nd5bd31d213b4cb1bf846bde47655c34" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="nd5bd31d213b4cb1bf846bde47655c34" ma:taxonomyFieldName="Contract_Type" ma:displayName="Contract Type" ma:readOnly="false" ma:fieldId="{7d5bd31d-213b-4cb1-bf84-6bde47655c34}" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="70805c8f-f58a-429f-b5cb-62c5b6dc5528" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ContractDate" ma:index="20" nillable="true" ma:displayName="Contract Date" ma:description="Date when the contract has been closed." ma:format="DateOnly" ma:hidden="true" ma:internalName="ContractDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ContractExpirationDate" ma:index="25" nillable="true" ma:displayName="Expiry Date" ma:description="The formal expiration date of the subject, either according to the contractual agreement or because a termination has become (legally) effective. " ma:format="DateOnly" ma:hidden="true" ma:internalName="ContractExpirationDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="26" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="27" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8661a489-ba16-49fb-b51a-1401f116943e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="28" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="29" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="30" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="31" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="32" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="33" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="34" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="36" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="10820af1-e82f-496e-bbcb-d9502914b7b2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IRCS3_build/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_build/Input Sheet_IRCS3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Run Control 3\IRCS3_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F823BE3-FDB3-41D6-A624-B0A486B343B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD303-809E-4F59-8974-CE4C04F799F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Path</t>
   </si>
@@ -60,9 +58,6 @@
   </si>
   <si>
     <t>exclude_cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDIDR </t>
   </si>
   <si>
     <t>exclude_portfolio</t>
@@ -329,10 +324,10 @@
     <t>Output Path Trad</t>
   </si>
   <si>
-    <t>D:\Run Control 3\Source</t>
-  </si>
-  <si>
     <t>Output Path UL</t>
+  </si>
+  <si>
+    <t>D:\RUN 3\control_3\IRCS3_local\Output</t>
   </si>
 </sst>
 </file>
@@ -777,7 +772,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +791,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -804,7 +799,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -812,7 +807,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>16233</v>
@@ -820,15 +815,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -836,7 +831,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -844,22 +839,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
   </headerFooter>
@@ -876,37 +872,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -918,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -927,44 +923,44 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
       <c r="D2">
         <v>16233</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>16588</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>2025</v>
@@ -972,19 +968,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>16233</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>2025</v>
@@ -992,19 +988,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>16162</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1017,48 +1013,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1070,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -1079,67 +1076,67 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>16162</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>16233</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>16588</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>2025</v>
@@ -1147,19 +1144,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>16233</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>2025</v>
@@ -1167,67 +1164,68 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>16162</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>16162</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>16162</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1248,117 +1246,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
